--- a/Documents/Servo address and range config.xlsx
+++ b/Documents/Servo address and range config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t xml:space="preserve">Leg</t>
   </si>
@@ -40,15 +40,6 @@
     <t xml:space="preserve">Series Name</t>
   </si>
   <si>
-    <t xml:space="preserve">0x41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 1 Arm</t>
-  </si>
-  <si>
     <t xml:space="preserve">0x40</t>
   </si>
   <si>
@@ -58,55 +49,67 @@
     <t xml:space="preserve">Leg 1 Claw</t>
   </si>
   <si>
+    <t xml:space="preserve">Leg 2 Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 3 Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 4 Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 5 Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high end goes 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 6 Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x41</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoulder</t>
   </si>
   <si>
     <t xml:space="preserve">Leg 1 Shoulder</t>
   </si>
   <si>
-    <t xml:space="preserve">Leg 2 Arm</t>
+    <t xml:space="preserve">Leg 2 Shoulder</t>
   </si>
   <si>
-    <t xml:space="preserve">Leg 2 Claw</t>
+    <t xml:space="preserve">Leg 3 Shoulder</t>
   </si>
   <si>
-    <t xml:space="preserve">Leg 2 Shoulder</t>
+    <t xml:space="preserve">Leg 4 Shoulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 5 Shoulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 6 Shoulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 1 Arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg 2 Arm</t>
   </si>
   <si>
     <t xml:space="preserve">Leg 3 Arm</t>
   </si>
   <si>
-    <t xml:space="preserve">Leg 3 Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 3 Shoulder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leg 4 Arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 4 Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 4 Shoulder</t>
   </si>
   <si>
     <t xml:space="preserve">Leg 5 Arm</t>
   </si>
   <si>
-    <t xml:space="preserve">Leg 5 Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 5 Shoulder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leg 6 Arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 6 Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg 6 Shoulder</t>
   </si>
 </sst>
 </file>
@@ -116,13 +119,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -141,11 +143,92 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -159,15 +242,57 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF636363"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -175,8 +300,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,13 +340,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,36 +410,53 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFCD33"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF43682B"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF997300"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF698ED0"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF7CAFDD"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFF1975A"/>
       <rgbColor rgb="FF255E91"/>
@@ -267,8 +475,8 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCD33"/>
+      <rgbColor rgb="FF698ED0"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF8CC168"/>
@@ -280,11 +488,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF43682B"/>
       <rgbColor rgb="FF9E480E"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF264478"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -301,10 +509,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.289135426918374"/>
-          <c:y val="0.0569264986231731"/>
-          <c:w val="0.307595955981032"/>
-          <c:h val="0.859881381063334"/>
+          <c:x val="0.289109147360879"/>
+          <c:y val="0.0568515258215962"/>
+          <c:w val="0.307588965846668"/>
+          <c:h val="0.859741784037559"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -319,7 +527,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 1 Arm</c:v>
+                  <c:v>Leg 1 Claw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -408,13 +616,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,7 +638,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 1 Claw</c:v>
+                  <c:v>Leg 2 Claw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -519,13 +727,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>575</c:v>
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,7 +749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 1 Shoulder</c:v>
+                  <c:v>Leg 3 Claw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -630,13 +838,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>620</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 2 Arm</c:v>
+                  <c:v>Leg 4 Claw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -741,13 +949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>610</c:v>
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 2 Claw</c:v>
+                  <c:v>Leg 5 Claw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -852,13 +1060,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>560</c:v>
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +1082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 2 Shoulder</c:v>
+                  <c:v>Leg 6 Claw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -963,13 +1171,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>570</c:v>
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +1193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 3 Arm</c:v>
+                  <c:v>Leg 1 Shoulder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1074,13 +1282,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>580</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 3 Claw</c:v>
+                  <c:v>Leg 2 Shoulder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1185,13 +1393,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>660</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,13 +1504,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>590</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,7 +1526,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 4 Arm</c:v>
+                  <c:v>Leg 4 Shoulder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1407,13 +1615,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>565</c:v>
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 4 Claw</c:v>
+                  <c:v>Leg 5 Shoulder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1518,13 +1726,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>595</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,7 +1748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 4 Shoulder</c:v>
+                  <c:v>Leg 6 Shoulder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1629,13 +1837,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,7 +1859,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 5 Arm</c:v>
+                  <c:v>Leg 1 Arm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1740,13 +1948,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>670</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,7 +1970,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 5 Claw</c:v>
+                  <c:v>Leg 2 Arm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1851,13 +2059,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>605</c:v>
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,7 +2081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 5 Shoulder</c:v>
+                  <c:v>Leg 3 Arm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1962,13 +2170,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>595</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,7 +2192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 6 Arm</c:v>
+                  <c:v>Leg 4 Arm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2073,13 +2281,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,7 +2303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 6 Claw</c:v>
+                  <c:v>Leg 5 Arm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2184,13 +2392,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>575</c:v>
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leg 6 Shoulder</c:v>
+                  <c:v>Leg 6 Arm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2295,24 +2503,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>675</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34310642"/>
-        <c:axId val="26054846"/>
+        <c:axId val="41657071"/>
+        <c:axId val="71590985"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34310642"/>
+        <c:axId val="41657071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,12 +2562,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26054846"/>
+        <c:crossAx val="71590985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26054846"/>
+        <c:axId val="71590985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34310642"/>
+        <c:crossAx val="41657071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2417,10 +2625,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.612507828576541"/>
-          <c:y val="0.0141919084939631"/>
-          <c:w val="0.351555277206167"/>
-          <c:h val="0.926922262232578"/>
+          <c:x val="0.612491043706711"/>
+          <c:y val="0.0141578638497653"/>
+          <c:w val="0.35154500671742"/>
+          <c:h val="0.926931259628787"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2466,16 +2674,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>569520</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>109440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2483,8 +2691,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5409000" y="42480"/>
-        <a:ext cx="12071160" cy="3399120"/>
+        <a:off x="11864160" y="1104840"/>
+        <a:ext cx="12058200" cy="4907160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2502,10 +2710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2514,8 +2722,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2554,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -2563,195 +2773,231 @@
         <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>340</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>600</v>
+        <v>555</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">SLOPE(F2:H2,$F$1:$H$1)</f>
+        <v>2.47222222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>575</v>
+        <v>555</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">SLOPE(F3:H3,$F$1:$H$1)</f>
+        <v>2.38888888888889</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>330</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>620</v>
+        <v>555</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">SLOPE(F4:H4,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>310</v>
+        <f aca="false">(H5+F5)/2</f>
+        <v>330</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>610</v>
+        <v>505</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">SLOPE(F5:H5,$F$1:$H$1)</f>
+        <v>1.94444444444444</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>560</v>
+        <v>570</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">SLOPE(F6:H6,$F$1:$H$1)</f>
+        <v>2.41666666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>570</v>
+        <v>550</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">SLOPE(F7:H7,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>580</v>
+        <v>555</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">SLOPE(F8:H8,$F$1:$H$1)</f>
+        <v>2.41666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>660</v>
+        <v>560</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">SLOPE(F9:H9,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,25 +3005,29 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>590</v>
+        <v>540</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">SLOPE(F10:H10,$F$1:$H$1)</f>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,207 +3035,241 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>565</v>
+        <v>520</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">SLOPE(F11:H11,$F$1:$H$1)</f>
+        <v>1.94444444444444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>595</v>
+        <v>535</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">SLOPE(F12:H12,$F$1:$H$1)</f>
+        <v>2.30555555555556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>600</v>
+        <v>545</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">SLOPE(F13:H13,$F$1:$H$1)</f>
+        <v>2.38888888888889</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>300</v>
+        <f aca="false">(H14+F14)/2</f>
+        <v>340</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>670</v>
+        <v>560</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">SLOPE(F14:H14,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>605</v>
+        <v>535</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">SLOPE(F15:H15,$F$1:$H$1)</f>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>320</v>
+        <f aca="false">(H16+F16)/2</f>
+        <v>340</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>595</v>
+        <v>560</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">SLOPE(F16:H16,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>330</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>605</v>
+        <v>560</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">SLOPE(F17:H17,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>575</v>
+        <v>525</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">SLOPE(F18:H18,$F$1:$H$1)</f>
+        <v>1.91666666666667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,25 +3277,36 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>315</v>
+        <f aca="false">(H19+F19)/2</f>
+        <v>340</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>675</v>
+        <v>560</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">SLOPE(F19:H19,$F$1:$H$1)</f>
+        <v>2.44444444444444</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048576" s="0" t="n">
+        <f aca="false">SUM(A1:A1048575)</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
